--- a/public/excel/PerformanceIndicator.xlsx
+++ b/public/excel/PerformanceIndicator.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t xml:space="preserve">Выполнение протокольных поручений</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t xml:space="preserve">Приложение 1. Данные по показателям, указанным в Приложении 5, программ деятельности образовательно-производственных центров (кластеров) с уточнением значений  по каждому году реализации Проекта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Полное наименование образовательной организации-грантополучателя</t>
   </si>
   <si>
     <t xml:space="preserve">Базовая ОО</t>
@@ -597,12 +594,12 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B8" activeCellId="1" sqref="A:A B8"/>
+      <selection pane="bottomLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="39.7"/>
@@ -3200,14 +3197,14 @@
   <dimension ref="A1:AMJ5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
+      <selection pane="topLeft" activeCell="AA17" activeCellId="0" sqref="AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="6" style="0" width="31.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="5" style="0" width="31.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3241,7 +3238,6 @@
       <c r="Z1" s="19"/>
       <c r="AA1" s="19"/>
       <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="20" t="s">
@@ -3259,9 +3255,7 @@
       <c r="E2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>17</v>
-      </c>
+      <c r="F2" s="20"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3284,51 +3278,51 @@
       <c r="Z2" s="20"/>
       <c r="AA2" s="20"/>
       <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21" t="n">
+      <c r="E3" s="21" t="n">
         <v>2023</v>
       </c>
+      <c r="F3" s="21"/>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="22" t="n">
+      <c r="M3" s="22" t="n">
         <v>2024</v>
       </c>
+      <c r="N3" s="22"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
       <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="23" t="n">
+      <c r="U3" s="23" t="n">
         <v>2025</v>
       </c>
+      <c r="V3" s="23"/>
       <c r="W3" s="23"/>
       <c r="X3" s="23"/>
       <c r="Y3" s="23"/>
       <c r="Z3" s="23"/>
       <c r="AA3" s="23"/>
       <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
     </row>
     <row r="4" customFormat="false" ht="255.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="E4" s="24" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" s="24" t="s">
         <v>18</v>
       </c>
@@ -3350,8 +3344,8 @@
       <c r="L4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="24" t="s">
-        <v>25</v>
+      <c r="M4" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="N4" s="25" t="s">
         <v>18</v>
@@ -3374,8 +3368,8 @@
       <c r="T4" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="25" t="s">
-        <v>25</v>
+      <c r="U4" s="26" t="s">
+        <v>17</v>
       </c>
       <c r="V4" s="26" t="s">
         <v>18</v>
@@ -3397,9 +3391,6 @@
       </c>
       <c r="AB4" s="26" t="s">
         <v>24</v>
-      </c>
-      <c r="AC4" s="26" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" s="28" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3487,25 +3478,22 @@
       <c r="AB5" s="27" t="n">
         <v>28</v>
       </c>
-      <c r="AC5" s="27" t="n">
-        <v>29</v>
-      </c>
+      <c r="AMG5" s="0"/>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:AC1"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:AB1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:AC2"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:U3"/>
-    <mergeCell ref="V3:AC3"/>
+    <mergeCell ref="E2:AB2"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="M3:T3"/>
+    <mergeCell ref="U3:AB3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
